--- a/source/_posts/笔记/学习计划.xlsx
+++ b/source/_posts/笔记/学习计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\zp\ztutorial\zp-cs\blog\source\_posts\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\zp\ztutorial\zp-cs\blog\source\_posts\笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8BB68D-1264-4CC8-984F-A3C7BAC19661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA5000-EB6C-4CBF-8C43-0A87AD6F759E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
   <si>
     <t>学习路线</t>
   </si>
@@ -321,6 +321,10 @@
   </si>
   <si>
     <t>后端存储实战课</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于后端存储的主要特性做了基础性介绍，但特性讲解不细致。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -901,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1404,7 +1408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>26</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
         <v>17</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>71</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>72</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>73</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
         <v>74</v>
       </c>
@@ -1577,7 +1581,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
         <v>92</v>
       </c>
@@ -1586,13 +1590,16 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
         <v>75</v>
       </c>
@@ -1607,7 +1614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="11" t="s">
         <v>76</v>
       </c>
@@ -1622,7 +1629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>77</v>
       </c>
@@ -1905,6 +1912,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1914,23 +1933,8 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1941,11 +1945,14 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1963,7 +1970,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1972,7 +1979,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1990,7 +1997,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
